--- a/templates/investor_report_rus_2.xlsx
+++ b/templates/investor_report_rus_2.xlsx
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="202">
   <si>
     <t>${report_date}</t>
   </si>
@@ -391,12 +391,6 @@
     <t>${total_recon}</t>
   </si>
   <si>
-    <t>VG Financing 2017</t>
-  </si>
-  <si>
-    <t>Powered by ccs.msk.ru</t>
-  </si>
-  <si>
     <t>${total_added_to_account}</t>
   </si>
   <si>
@@ -457,9 +451,6 @@
     <t>Сумма</t>
   </si>
   <si>
-    <t>ИТОГОВАЯ СВЕРКА</t>
-  </si>
-  <si>
     <t>ВСЕГО ПОСТУПИЛО ОТ ИНВЕСТОРА</t>
   </si>
   <si>
@@ -496,21 +487,9 @@
     <t>${t1_sum_complete_percent_l}</t>
   </si>
   <si>
-    <t>MANAGEMENT FEE (40%)</t>
-  </si>
-  <si>
     <t>${table:t2_last_weeks_total_collected}</t>
   </si>
   <si>
-    <t>ОБЩИЙ СПИСОК СДЕЛОК</t>
-  </si>
-  <si>
-    <t>ПАКЕТ ИНВЕСТОРА</t>
-  </si>
-  <si>
-    <t>СУММАРНЫЙ ВОЗВРАТ</t>
-  </si>
-  <si>
     <t>ТОРГОВЕЦ</t>
   </si>
   <si>
@@ -565,9 +544,6 @@
     <t>СУММА ПОЛНОГО ВОЗВРАТА</t>
   </si>
   <si>
-    <t>ЧИСТАЯ ПРИБЫЛЬ ИНВЕСТОРА (60%)</t>
-  </si>
-  <si>
     <t>БУДУЩИЙ ВОЗВРАТ БЕЗ MGM FEE</t>
   </si>
   <si>
@@ -583,9 +559,6 @@
     <t>СОБРАНО НА ДАТУ ОТЧЕТА</t>
   </si>
   <si>
-    <t>ВЫПЛАЧЕНО КОМИССИИ VG (40%)</t>
-  </si>
-  <si>
     <t>ОБЩАЯ СУММА ПОСТУПЛЕНИЯ БЕЗ MGM FEE</t>
   </si>
   <si>
@@ -626,6 +599,30 @@
   </si>
   <si>
     <t>СОБРАНО НА ЭТОЙ НЕДЕЛЕ</t>
+  </si>
+  <si>
+    <t>Процент закрытия</t>
+  </si>
+  <si>
+    <t>ВЫПЛАЧЕНО КОМИССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧИСТАЯ ПРИБЫЛЬ ИНВЕСТОРА </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANAGEMENT FEE </t>
+  </si>
+  <si>
+    <t>СДЕЛКИ</t>
+  </si>
+  <si>
+    <t>УЧАСТИЕ</t>
+  </si>
+  <si>
+    <t>ПОСТУПЛЕНИЯ</t>
+  </si>
+  <si>
+    <t>СВЕРКА</t>
   </si>
 </sst>
 </file>
@@ -922,14 +919,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -961,8 +950,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1006,43 +1002,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1287,7 +1259,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1475,14 +1447,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1505,9 +1473,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1519,16 +1484,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="11" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1568,7 +1530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1590,12 +1552,6 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1618,123 +1574,133 @@
     <xf numFmtId="164" fontId="23" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="8" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="30" fillId="13" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="38" fillId="13" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="39" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="30" fillId="13" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="38" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="38" fillId="13" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="38" fillId="13" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="30" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="12" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="40" fillId="12" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="12" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="24" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="38" fillId="11" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="30" fillId="13" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="38" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="30" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="41" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="24" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="37" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="30" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="30" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="37" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="30" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="37" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="37" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="37" fillId="8" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="38" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="40" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="30" fillId="8" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="30" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1758,41 +1724,40 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>496600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2812</xdr:colOff>
+      <xdr:colOff>84089</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>609600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="http://vgfinancing.com/assets/img/logo.png"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="609601" y="190500"/>
-          <a:ext cx="2164986" cy="447675"/>
+          <a:off x="496600" y="133350"/>
+          <a:ext cx="2359264" cy="1076325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1807,50 +1772,6 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>416474</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114302</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>602703</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>314326</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15894599" y="3524252"/>
-          <a:ext cx="186229" cy="200024"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2150,7 +2071,9 @@
   </sheetPr>
   <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2171,24 +2094,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q1" s="91" t="s">
-        <v>124</v>
-      </c>
+      <c r="Q1" s="88"/>
     </row>
     <row r="2" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="128" t="s">
-        <v>192</v>
+      <c r="B4" s="122" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="173" t="s">
+      <c r="B5" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="173"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
       <c r="G5" s="76"/>
       <c r="H5" s="76"/>
       <c r="I5" s="76"/>
@@ -2198,7 +2120,7 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="118" t="s">
         <v>102</v>
       </c>
       <c r="D6" s="2"/>
@@ -2215,18 +2137,18 @@
       <c r="I6" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="N6" s="122"/>
+      <c r="N6" s="118"/>
     </row>
     <row r="7" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="122"/>
+      <c r="B7" s="118"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
       <c r="F7" s="77"/>
       <c r="G7" s="5"/>
       <c r="H7" s="78"/>
       <c r="I7" s="77"/>
-      <c r="N7" s="122"/>
+      <c r="N7" s="118"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -2236,29 +2158,13 @@
       <c r="G8" s="5"/>
       <c r="H8" s="78"/>
       <c r="I8" s="77"/>
-      <c r="N8" s="122"/>
+      <c r="N8" s="118"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="79"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
+    <row r="10" spans="1:17" s="149" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="148"/>
     </row>
     <row r="11" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
@@ -2272,8 +2178,8 @@
     </row>
     <row r="12" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="142" t="s">
-        <v>161</v>
+      <c r="B12" s="147" t="s">
+        <v>198</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
@@ -2281,237 +2187,237 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="87" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="139" t="s">
+      <c r="A13" s="85"/>
+      <c r="B13" s="131" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="132" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="133" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" s="134" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="133" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="135" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" s="135" t="s">
+        <v>163</v>
+      </c>
+      <c r="I13" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="C13" s="154" t="s">
+      <c r="J13" s="133" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="155" t="s">
+      <c r="K13" s="133" t="s">
         <v>166</v>
       </c>
-      <c r="E13" s="156" t="s">
+      <c r="L13" s="133" t="s">
         <v>167</v>
       </c>
-      <c r="F13" s="155" t="s">
+      <c r="M13" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="G13" s="157" t="s">
+      <c r="N13" s="133" t="s">
         <v>169</v>
       </c>
-      <c r="H13" s="157" t="s">
+      <c r="O13" s="133" t="s">
         <v>170</v>
       </c>
-      <c r="I13" s="154" t="s">
-        <v>171</v>
-      </c>
-      <c r="J13" s="155" t="s">
-        <v>172</v>
-      </c>
-      <c r="K13" s="155" t="s">
-        <v>173</v>
-      </c>
-      <c r="L13" s="155" t="s">
-        <v>174</v>
-      </c>
-      <c r="M13" s="158" t="s">
-        <v>175</v>
-      </c>
-      <c r="N13" s="155" t="s">
-        <v>176</v>
-      </c>
-      <c r="O13" s="155" t="s">
-        <v>177</v>
-      </c>
-      <c r="P13" s="159"/>
+      <c r="P13" s="137" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="93" t="s">
+      <c r="C14" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="131" t="s">
+      <c r="D14" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="93" t="s">
+      <c r="E14" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="132" t="s">
+      <c r="F14" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="93" t="s">
+      <c r="G14" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="93" t="s">
+      <c r="H14" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="131" t="s">
+      <c r="I14" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="132" t="s">
+      <c r="J14" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="131" t="s">
-        <v>197</v>
-      </c>
-      <c r="L14" s="132" t="s">
+      <c r="K14" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="L14" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="131" t="s">
+      <c r="M14" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="131" t="s">
+      <c r="N14" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="O14" s="118" t="s">
+      <c r="O14" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="P14" s="123" t="s">
-        <v>157</v>
+      <c r="P14" s="119" t="s">
+        <v>154</v>
       </c>
       <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="120"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="118"/>
-      <c r="P15" s="123"/>
+      <c r="A15" s="116"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="114"/>
+      <c r="P15" s="119"/>
       <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="120"/>
-      <c r="B16" s="121"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="118"/>
-      <c r="P16" s="123"/>
+      <c r="A16" s="116"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="114"/>
+      <c r="P16" s="119"/>
       <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="120"/>
-      <c r="B17" s="121"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="118"/>
-      <c r="P17" s="123"/>
+      <c r="A17" s="116"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="114"/>
+      <c r="P17" s="119"/>
       <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="120"/>
-      <c r="B18" s="121"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="118"/>
-      <c r="P18" s="123"/>
+      <c r="A18" s="116"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="114"/>
+      <c r="P18" s="119"/>
       <c r="Q18" s="13"/>
     </row>
     <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="120"/>
-      <c r="B19" s="121"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="118"/>
-      <c r="P19" s="123"/>
+      <c r="A19" s="116"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="114"/>
+      <c r="P19" s="119"/>
       <c r="Q19" s="13"/>
     </row>
     <row r="20" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136" t="s">
+      <c r="C20" s="140"/>
+      <c r="D20" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="83" t="s">
+      <c r="E20" s="141" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="136" t="s">
+      <c r="F20" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="136"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="136" t="s">
+      <c r="G20" s="140"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="136" t="s">
-        <v>198</v>
-      </c>
-      <c r="L20" s="136" t="s">
+      <c r="K20" s="140" t="s">
+        <v>189</v>
+      </c>
+      <c r="L20" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="M20" s="136" t="s">
+      <c r="M20" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="N20" s="136" t="s">
+      <c r="N20" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="O20" s="160" t="s">
+      <c r="O20" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="P20" s="124" t="s">
-        <v>158</v>
+      <c r="P20" s="143" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2532,8 +2438,8 @@
     </row>
     <row r="22" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="142" t="s">
-        <v>162</v>
+      <c r="B22" s="147" t="s">
+        <v>199</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="25"/>
@@ -2550,186 +2456,184 @@
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
     </row>
-    <row r="23" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="86" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="141" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" s="140" t="s">
+    <row r="23" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="84"/>
+      <c r="B23" s="138" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="132" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="132" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" s="132" t="s">
+        <v>185</v>
+      </c>
+      <c r="F23" s="132" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="H23" s="132" t="s">
+        <v>174</v>
+      </c>
+      <c r="I23" s="132" t="s">
+        <v>197</v>
+      </c>
+      <c r="J23" s="132" t="s">
+        <v>196</v>
+      </c>
+      <c r="K23" s="132" t="s">
+        <v>175</v>
+      </c>
+      <c r="L23" s="132" t="s">
+        <v>176</v>
+      </c>
+      <c r="M23" s="132" t="s">
+        <v>177</v>
+      </c>
+      <c r="N23" s="132" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="140" t="s">
-        <v>173</v>
-      </c>
-      <c r="E23" s="140" t="s">
-        <v>194</v>
-      </c>
-      <c r="F23" s="140" t="s">
+      <c r="O23" s="132" t="s">
+        <v>184</v>
+      </c>
+      <c r="P23" s="132" t="s">
         <v>179</v>
       </c>
-      <c r="G23" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="H23" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="I23" s="140" t="s">
-        <v>159</v>
-      </c>
-      <c r="J23" s="140" t="s">
-        <v>182</v>
-      </c>
-      <c r="K23" s="140" t="s">
-        <v>183</v>
-      </c>
-      <c r="L23" s="140" t="s">
-        <v>184</v>
-      </c>
-      <c r="M23" s="140" t="s">
-        <v>185</v>
-      </c>
-      <c r="N23" s="140" t="s">
-        <v>186</v>
-      </c>
-      <c r="O23" s="140" t="s">
-        <v>193</v>
-      </c>
-      <c r="P23" s="140" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q23" s="125" t="s">
-        <v>188</v>
+      <c r="Q23" s="139" t="s">
+        <v>195</v>
       </c>
       <c r="R23" s="29"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="126" t="s">
+      <c r="B24" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="133" t="s">
+      <c r="C24" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="134" t="s">
+      <c r="D24" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="134" t="s">
+      <c r="E24" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="127" t="s">
+      <c r="F24" s="121" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="133" t="s">
+      <c r="G24" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="133" t="s">
+      <c r="H24" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="133" t="s">
+      <c r="I24" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="J24" s="133" t="s">
+      <c r="J24" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="K24" s="133" t="s">
+      <c r="K24" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="L24" s="127" t="s">
+      <c r="L24" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="135" t="s">
+      <c r="M24" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="N24" s="135" t="s">
+      <c r="N24" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="O24" s="135" t="s">
+      <c r="O24" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="P24" s="135" t="s">
+      <c r="P24" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="Q24" s="135" t="s">
+      <c r="Q24" s="129" t="s">
         <v>37</v>
       </c>
       <c r="R24" s="29"/>
     </row>
     <row r="25" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
-      <c r="B25" s="81" t="s">
+      <c r="B25" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="136" t="s">
+      <c r="C25" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="136" t="s">
+      <c r="D25" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="136" t="s">
+      <c r="E25" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="136"/>
-      <c r="G25" s="136" t="s">
+      <c r="F25" s="140"/>
+      <c r="G25" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="136" t="s">
+      <c r="H25" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="I25" s="136" t="s">
+      <c r="I25" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="J25" s="136" t="s">
+      <c r="J25" s="140" t="s">
         <v>42</v>
       </c>
-      <c r="K25" s="136" t="s">
+      <c r="K25" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="L25" s="136"/>
-      <c r="M25" s="136" t="s">
+      <c r="L25" s="140"/>
+      <c r="M25" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="N25" s="136" t="s">
+      <c r="N25" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="O25" s="136" t="s">
-        <v>160</v>
-      </c>
-      <c r="P25" s="136" t="s">
+      <c r="O25" s="140" t="s">
+        <v>156</v>
+      </c>
+      <c r="P25" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="Q25" s="136" t="s">
+      <c r="Q25" s="140" t="s">
         <v>95</v>
       </c>
       <c r="R25" s="29"/>
     </row>
     <row r="26" spans="1:18" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="84"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="82"/>
       <c r="R26" s="29"/>
     </row>
     <row r="27" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="142" t="s">
-        <v>163</v>
+      <c r="B27" s="147" t="s">
+        <v>200</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="2"/>
@@ -2750,162 +2654,160 @@
       <c r="Q27" s="15"/>
       <c r="R27" s="15"/>
     </row>
-    <row r="28" spans="1:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="86" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="139" t="s">
-        <v>164</v>
-      </c>
-      <c r="C28" s="153" t="s">
-        <v>189</v>
-      </c>
-      <c r="D28" s="138" t="s">
-        <v>190</v>
-      </c>
-      <c r="E28" s="95" t="s">
+    <row r="28" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="84"/>
+      <c r="B28" s="131" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="144" t="s">
+        <v>180</v>
+      </c>
+      <c r="D28" s="145" t="s">
+        <v>181</v>
+      </c>
+      <c r="E28" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="95" t="s">
+      <c r="F28" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="95" t="s">
+      <c r="G28" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="95" t="s">
+      <c r="H28" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="95" t="s">
+      <c r="I28" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="J28" s="95" t="s">
+      <c r="J28" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="K28" s="95" t="s">
+      <c r="K28" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="L28" s="95" t="s">
+      <c r="L28" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="M28" s="95" t="s">
+      <c r="M28" s="144" t="s">
         <v>55</v>
       </c>
-      <c r="N28" s="95" t="s">
+      <c r="N28" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="O28" s="95" t="s">
+      <c r="O28" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="P28" s="95" t="s">
+      <c r="P28" s="144" t="s">
         <v>58</v>
       </c>
-      <c r="Q28" s="90" t="s">
-        <v>191</v>
+      <c r="Q28" s="146" t="s">
+        <v>182</v>
       </c>
       <c r="R28" s="16"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="82" t="s">
+      <c r="A29" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="126" t="s">
+      <c r="B29" s="120" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="133" t="s">
+      <c r="C29" s="127" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="133" t="s">
+      <c r="D29" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="134" t="s">
+      <c r="E29" s="128" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="134" t="s">
+      <c r="F29" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="G29" s="134" t="s">
+      <c r="G29" s="128" t="s">
         <v>63</v>
       </c>
-      <c r="H29" s="134" t="s">
+      <c r="H29" s="128" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="134" t="s">
+      <c r="I29" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="J29" s="134" t="s">
+      <c r="J29" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="K29" s="134" t="s">
+      <c r="K29" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="L29" s="134" t="s">
+      <c r="L29" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="M29" s="134" t="s">
+      <c r="M29" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="N29" s="134" t="s">
+      <c r="N29" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="O29" s="134" t="s">
+      <c r="O29" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="P29" s="134" t="s">
+      <c r="P29" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="Q29" s="133" t="s">
+      <c r="Q29" s="127" t="s">
         <v>73</v>
       </c>
       <c r="R29" s="16"/>
     </row>
     <row r="30" spans="1:18" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="136" t="s">
+      <c r="C30" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="136" t="s">
+      <c r="D30" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="136" t="s">
+      <c r="E30" s="140" t="s">
         <v>76</v>
       </c>
-      <c r="F30" s="136" t="s">
+      <c r="F30" s="140" t="s">
         <v>77</v>
       </c>
-      <c r="G30" s="136" t="s">
+      <c r="G30" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="H30" s="136" t="s">
+      <c r="H30" s="140" t="s">
         <v>79</v>
       </c>
-      <c r="I30" s="136" t="s">
+      <c r="I30" s="140" t="s">
         <v>80</v>
       </c>
-      <c r="J30" s="136" t="s">
+      <c r="J30" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="K30" s="136" t="s">
+      <c r="K30" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="L30" s="136" t="s">
+      <c r="L30" s="140" t="s">
         <v>83</v>
       </c>
-      <c r="M30" s="136" t="s">
+      <c r="M30" s="140" t="s">
         <v>84</v>
       </c>
-      <c r="N30" s="136" t="s">
+      <c r="N30" s="140" t="s">
         <v>85</v>
       </c>
-      <c r="O30" s="136" t="s">
+      <c r="O30" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="P30" s="136" t="s">
+      <c r="P30" s="140" t="s">
         <v>87</v>
       </c>
-      <c r="Q30" s="136" t="s">
+      <c r="Q30" s="140" t="s">
         <v>88</v>
       </c>
       <c r="R30" s="16"/>
@@ -2954,10 +2856,10 @@
     </row>
     <row r="33" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
-      <c r="B33" s="163" t="s">
-        <v>146</v>
-      </c>
-      <c r="C33" s="137"/>
+      <c r="B33" s="150" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="151"/>
       <c r="D33" s="2"/>
       <c r="E33" s="36"/>
       <c r="F33" s="37"/>
@@ -2965,13 +2867,13 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="164" t="s">
-        <v>147</v>
-      </c>
-      <c r="C34" s="143" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" s="89"/>
+      <c r="B34" s="152" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="153" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="87"/>
       <c r="E34" s="39"/>
       <c r="F34" s="40"/>
       <c r="G34" s="11"/>
@@ -2983,9 +2885,9 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="164"/>
-      <c r="C35" s="143"/>
-      <c r="D35" s="89"/>
+      <c r="B35" s="152"/>
+      <c r="C35" s="153"/>
+      <c r="D35" s="87"/>
       <c r="E35" s="39"/>
       <c r="F35" s="40"/>
       <c r="G35" s="11"/>
@@ -2997,11 +2899,11 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="165" t="s">
-        <v>199</v>
-      </c>
-      <c r="C36" s="144"/>
-      <c r="D36" s="89"/>
+      <c r="B36" s="154" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" s="155"/>
+      <c r="D36" s="87"/>
       <c r="E36" s="39"/>
       <c r="F36" s="40"/>
       <c r="G36" s="11"/>
@@ -3013,13 +2915,13 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" s="166" t="s">
-        <v>200</v>
-      </c>
-      <c r="C37" s="143" t="s">
-        <v>201</v>
-      </c>
-      <c r="D37" s="89"/>
+      <c r="B37" s="156" t="s">
+        <v>191</v>
+      </c>
+      <c r="C37" s="153" t="s">
+        <v>192</v>
+      </c>
+      <c r="D37" s="87"/>
       <c r="E37" s="39"/>
       <c r="F37" s="40"/>
       <c r="G37" s="11"/>
@@ -3031,9 +2933,9 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="165"/>
-      <c r="C38" s="144"/>
-      <c r="D38" s="89"/>
+      <c r="B38" s="154"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="87"/>
       <c r="E38" s="43"/>
       <c r="F38" s="44"/>
       <c r="G38" s="45"/>
@@ -3044,11 +2946,11 @@
     </row>
     <row r="39" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="165" t="s">
-        <v>156</v>
-      </c>
-      <c r="C39" s="144"/>
-      <c r="D39" s="89"/>
+      <c r="B39" s="154" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" s="155"/>
+      <c r="D39" s="87"/>
       <c r="E39" s="43"/>
       <c r="F39" s="44"/>
       <c r="G39" s="45"/>
@@ -3059,13 +2961,13 @@
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" s="166" t="s">
+      <c r="B40" s="156" t="s">
         <v>121</v>
       </c>
-      <c r="C40" s="143" t="s">
+      <c r="C40" s="153" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="89"/>
+      <c r="D40" s="87"/>
       <c r="E40" s="43"/>
       <c r="F40" s="44"/>
       <c r="G40" s="45"/>
@@ -3076,8 +2978,8 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
-      <c r="B41" s="167"/>
-      <c r="C41" s="145"/>
+      <c r="B41" s="157"/>
+      <c r="C41" s="158"/>
       <c r="D41" s="2"/>
       <c r="E41" s="48"/>
       <c r="F41" s="44"/>
@@ -3088,8 +2990,8 @@
     </row>
     <row r="42" spans="1:17" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
-      <c r="B42" s="167"/>
-      <c r="C42" s="147"/>
+      <c r="B42" s="157"/>
+      <c r="C42" s="159"/>
       <c r="D42" s="2"/>
       <c r="E42" s="48"/>
       <c r="F42" s="44"/>
@@ -3097,10 +2999,10 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
-      <c r="B43" s="166" t="s">
-        <v>141</v>
-      </c>
-      <c r="C43" s="148" t="s">
+      <c r="B43" s="156" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="160" t="s">
         <v>123</v>
       </c>
       <c r="D43" s="2"/>
@@ -3110,11 +3012,11 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
-      <c r="B44" s="166" t="s">
-        <v>132</v>
-      </c>
-      <c r="C44" s="149" t="s">
-        <v>195</v>
+      <c r="B44" s="156" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="161" t="s">
+        <v>186</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="48"/>
@@ -3123,85 +3025,85 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
-      <c r="B45" s="167"/>
-      <c r="C45" s="150"/>
-      <c r="D45" s="88"/>
+      <c r="B45" s="157"/>
+      <c r="C45" s="161"/>
+      <c r="D45" s="86"/>
       <c r="E45" s="48"/>
       <c r="F45" s="44"/>
       <c r="G45" s="45"/>
     </row>
     <row r="46" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
-      <c r="B46" s="166" t="s">
-        <v>148</v>
-      </c>
-      <c r="C46" s="151" t="s">
-        <v>153</v>
-      </c>
-      <c r="D46" s="88"/>
+      <c r="B46" s="156" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="162" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" s="86"/>
       <c r="E46" s="48"/>
       <c r="F46" s="44"/>
       <c r="G46" s="45"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="166" t="s">
-        <v>149</v>
-      </c>
-      <c r="C47" s="161" t="s">
+      <c r="B47" s="156" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="88"/>
+      <c r="D47" s="86"/>
       <c r="E47" s="48"/>
       <c r="F47" s="44"/>
       <c r="G47" s="45"/>
     </row>
     <row r="48" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="168" t="s">
-        <v>150</v>
-      </c>
-      <c r="C48" s="146" t="s">
-        <v>154</v>
-      </c>
-      <c r="D48" s="88"/>
+      <c r="B48" s="164" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="165" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" s="86"/>
       <c r="E48" s="48"/>
       <c r="F48" s="44"/>
       <c r="G48" s="45"/>
     </row>
     <row r="49" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="168" t="s">
-        <v>202</v>
-      </c>
-      <c r="C49" s="174" t="s">
+      <c r="B49" s="164" t="s">
+        <v>193</v>
+      </c>
+      <c r="C49" s="166" t="s">
         <v>87</v>
       </c>
-      <c r="D49" s="88"/>
+      <c r="D49" s="86"/>
       <c r="E49" s="48"/>
       <c r="F49" s="44"/>
       <c r="G49" s="45"/>
     </row>
     <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
-      <c r="B50" s="169" t="s">
-        <v>152</v>
-      </c>
-      <c r="C50" s="162" t="s">
-        <v>196</v>
-      </c>
-      <c r="D50" s="88"/>
+      <c r="B50" s="167" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="168" t="s">
+        <v>187</v>
+      </c>
+      <c r="D50" s="86"/>
       <c r="E50" s="48"/>
       <c r="F50" s="44"/>
       <c r="G50" s="45"/>
     </row>
     <row r="51" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
-      <c r="B51" s="170" t="s">
-        <v>151</v>
-      </c>
-      <c r="C51" s="152" t="s">
-        <v>155</v>
+      <c r="B51" s="169" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="170" t="s">
+        <v>152</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="48"/>
@@ -3212,17 +3114,15 @@
       <c r="A52" s="1"/>
       <c r="B52" s="171"/>
       <c r="C52" s="172"/>
-      <c r="D52" s="88"/>
+      <c r="D52" s="86"/>
       <c r="E52" s="48"/>
       <c r="F52" s="49"/>
       <c r="G52" s="45"/>
     </row>
     <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="92" t="s">
-        <v>125</v>
-      </c>
-      <c r="D53" s="88"/>
+      <c r="B53" s="89"/>
+      <c r="D53" s="86"/>
       <c r="E53" s="48"/>
       <c r="F53" s="49"/>
       <c r="G53" s="45"/>
@@ -3249,7 +3149,7 @@
       <c r="G56" s="45"/>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E65" s="119"/>
+      <c r="E65" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3286,19 +3186,19 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="104"/>
+        <v>125</v>
+      </c>
+      <c r="C2" s="100"/>
       <c r="D2" s="51"/>
       <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="105" t="s">
         <v>126</v>
+      </c>
+      <c r="C3" s="101" t="s">
+        <v>124</v>
       </c>
       <c r="D3" s="53"/>
       <c r="E3" s="16"/>
@@ -3306,16 +3206,16 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="42"/>
-      <c r="C4" s="106"/>
+      <c r="C4" s="102"/>
       <c r="D4" s="53"/>
       <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="101" t="s">
         <v>75</v>
       </c>
       <c r="D5" s="54"/>
@@ -3324,9 +3224,9 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="106" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="102" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="53"/>
@@ -3335,9 +3235,9 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="106" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="102" t="s">
         <v>74</v>
       </c>
       <c r="D7" s="53"/>
@@ -3346,9 +3246,9 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="103" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="53"/>
@@ -3357,145 +3257,145 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="108"/>
+        <v>131</v>
+      </c>
+      <c r="C9" s="104"/>
       <c r="D9" s="53"/>
       <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="42"/>
-      <c r="C10" s="108"/>
+      <c r="C10" s="104"/>
       <c r="D10" s="53"/>
       <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="57"/>
-      <c r="C11" s="108"/>
+      <c r="C11" s="104"/>
       <c r="D11" s="53"/>
       <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="57"/>
-      <c r="C12" s="108"/>
+      <c r="C12" s="104"/>
       <c r="D12" s="53"/>
       <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="57"/>
-      <c r="C13" s="108"/>
+      <c r="C13" s="104"/>
       <c r="D13" s="53"/>
       <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="57"/>
-      <c r="C14" s="108"/>
+      <c r="C14" s="104"/>
       <c r="D14" s="53"/>
       <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="57"/>
-      <c r="C15" s="108"/>
+      <c r="C15" s="104"/>
       <c r="D15" s="53"/>
       <c r="E15" s="16"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="57"/>
-      <c r="C16" s="108"/>
+      <c r="C16" s="104"/>
       <c r="D16" s="53"/>
       <c r="E16" s="16"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="57"/>
-      <c r="C17" s="108"/>
+      <c r="C17" s="104"/>
       <c r="D17" s="53"/>
       <c r="E17" s="16"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="57"/>
-      <c r="C18" s="108"/>
+      <c r="C18" s="104"/>
       <c r="D18" s="53"/>
       <c r="E18" s="16"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="58"/>
-      <c r="C19" s="104"/>
+      <c r="C19" s="100"/>
       <c r="D19" s="51"/>
       <c r="E19" s="16"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" s="108" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="117" t="s">
-        <v>137</v>
+        <v>130</v>
+      </c>
+      <c r="C20" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="113" t="s">
+        <v>135</v>
       </c>
       <c r="E20" s="16"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="16"/>
       <c r="B21" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21" s="109"/>
+        <v>132</v>
+      </c>
+      <c r="C21" s="105"/>
       <c r="D21" s="53"/>
       <c r="E21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="16"/>
       <c r="B22" s="59" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C22" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="116" t="s">
-        <v>139</v>
+      <c r="D22" s="112" t="s">
+        <v>137</v>
       </c>
       <c r="E22" s="16"/>
-      <c r="F22" s="115" t="s">
-        <v>140</v>
+      <c r="F22" s="111" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="61"/>
-      <c r="C23" s="110"/>
+      <c r="C23" s="106"/>
       <c r="D23" s="53"/>
       <c r="E23" s="16"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="61"/>
-      <c r="C24" s="111"/>
+      <c r="C24" s="107"/>
       <c r="D24" s="53"/>
       <c r="E24" s="16"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="61"/>
-      <c r="C25" s="111"/>
+      <c r="C25" s="107"/>
       <c r="D25" s="53"/>
       <c r="E25" s="16"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16"/>
       <c r="B26" s="62"/>
-      <c r="C26" s="112"/>
+      <c r="C26" s="108"/>
       <c r="D26" s="60"/>
       <c r="E26" s="16"/>
     </row>
@@ -3516,9 +3416,9 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="64" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="99">
+        <v>134</v>
+      </c>
+      <c r="C29" s="95">
         <f>SUM(C30:C38)</f>
         <v>0</v>
       </c>
@@ -3527,10 +3427,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
-      <c r="B30" s="100"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="103"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="99"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31" s="47"/>
@@ -3560,19 +3460,19 @@
     <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" s="113" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="114" t="s">
+    <row r="2" spans="2:3" s="109" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="93" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="129" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="130" t="s">
+      <c r="B3" s="123" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="124" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3634,156 +3534,156 @@
       <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:19" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="85" t="s">
+      <c r="E5" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="G5" s="85" t="s">
+      <c r="G5" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="H5" s="85" t="s">
+      <c r="H5" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="I5" s="85" t="s">
+      <c r="I5" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="J5" s="85" t="s">
+      <c r="J5" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="K5" s="85" t="s">
+      <c r="K5" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="L5" s="85" t="s">
+      <c r="L5" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="M5" s="85" t="s">
+      <c r="M5" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="N5" s="85" t="s">
+      <c r="N5" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="O5" s="85" t="s">
+      <c r="O5" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="P5" s="85" t="s">
+      <c r="P5" s="83" t="s">
         <v>119</v>
       </c>
       <c r="R5" s="66" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S5" s="67" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="96" t="s">
+      <c r="E6" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="96" t="s">
+      <c r="F6" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="96" t="s">
+      <c r="G6" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="96" t="s">
+      <c r="H6" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="96" t="s">
+      <c r="I6" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="96" t="s">
+      <c r="J6" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="96" t="s">
+      <c r="K6" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="97" t="s">
+      <c r="L6" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="97" t="s">
+      <c r="M6" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="97" t="s">
+      <c r="N6" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="97" t="s">
+      <c r="O6" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="97" t="s">
+      <c r="P6" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="R6" s="98" t="s">
-        <v>142</v>
-      </c>
-      <c r="S6" s="98" t="s">
-        <v>143</v>
+      <c r="R6" s="94" t="s">
+        <v>140</v>
+      </c>
+      <c r="S6" s="94" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83" t="s">
+      <c r="E7" s="81"/>
+      <c r="F7" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="83" t="s">
+      <c r="G7" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="83" t="s">
+      <c r="H7" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="I7" s="83" t="s">
+      <c r="I7" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="83" t="s">
+      <c r="J7" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83" t="s">
+      <c r="K7" s="81"/>
+      <c r="L7" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="83" t="s">
+      <c r="M7" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83" t="s">
+      <c r="N7" s="81"/>
+      <c r="O7" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="83" t="s">
+      <c r="P7" s="81" t="s">
         <v>95</v>
       </c>
       <c r="R7" s="68"/>
@@ -3791,7 +3691,7 @@
     </row>
     <row r="8" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R8" s="70" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="S8" s="71" t="s">
         <v>95</v>

--- a/templates/investor_report_rus_2.xlsx
+++ b/templates/investor_report_rus_2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="202">
   <si>
     <t>${report_date}</t>
   </si>
@@ -628,7 +628,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
@@ -639,7 +639,7 @@
     <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="169" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,14 +679,6 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1255,11 +1247,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1277,20 +1269,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1303,54 +1285,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1367,7 +1337,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1392,7 +1362,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1405,7 +1375,7 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1422,10 +1392,10 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1437,26 +1407,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1465,32 +1432,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="10" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1515,7 +1482,7 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1530,185 +1497,188 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="30" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="8" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="8" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="11" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="39" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="38" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="24" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="23" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="37" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="36" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="30" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="29" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="30" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="29" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="37" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="36" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="30" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="29" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="37" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="36" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="37" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="36" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="37" fillId="8" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="36" fillId="8" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="38" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="37" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="40" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="39" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="29" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="30" fillId="8" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="29" fillId="8" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="30" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="29" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 5" xfId="5"/>
-    <cellStyle name="Note" xfId="4" builtinId="10"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Примечание" xfId="4" builtinId="10"/>
+    <cellStyle name="Процентный" xfId="3" builtinId="5"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1724,14 +1694,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>496600</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>479</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>84089</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>970734</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>609600</xdr:rowOff>
     </xdr:to>
@@ -1743,21 +1713,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="496600" y="133350"/>
-          <a:ext cx="2359264" cy="1076325"/>
+          <a:off x="610079" y="133350"/>
+          <a:ext cx="970255" cy="1076325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1765,7 +1729,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1780,9 +1744,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1820,7 +1784,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1854,7 +1818,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1889,10 +1852,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2065,17 +2027,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R65"/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="32.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
@@ -2093,1067 +2055,1030 @@
     <col min="17" max="17" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q1" s="88"/>
-    </row>
-    <row r="2" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="122" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="164"/>
+      <c r="B1" s="164"/>
+      <c r="Q1" s="79"/>
+    </row>
+    <row r="2" spans="1:17" ht="32.25" customHeight="1">
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
+    </row>
+    <row r="3" spans="1:17" ht="62.25" customHeight="1">
+      <c r="A3" s="164"/>
+      <c r="B3" s="164"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="B4" s="113" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="130" t="s">
+    <row r="5" spans="1:17" ht="30" customHeight="1">
+      <c r="B5" s="163" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75">
       <c r="A6" s="1"/>
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="109" t="s">
         <v>102</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F6" s="77" t="s">
+      <c r="F6" s="69" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="78" t="s">
+      <c r="H6" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="I6" s="77" t="s">
+      <c r="I6" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="N6" s="118"/>
-    </row>
-    <row r="7" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N6" s="109"/>
+    </row>
+    <row r="7" spans="1:17" ht="12" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="118"/>
+      <c r="B7" s="109"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="77"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="77"/>
-      <c r="N7" s="118"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H7" s="70"/>
+      <c r="I7" s="69"/>
+      <c r="N7" s="109"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.75">
       <c r="A8" s="1"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="77"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="77"/>
-      <c r="N8" s="118"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H8" s="70"/>
+      <c r="I8" s="69"/>
+      <c r="N8" s="109"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:17" s="149" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="148"/>
-    </row>
-    <row r="11" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="147" t="s">
+    <row r="10" spans="1:17" s="139" customFormat="1" ht="2.25" customHeight="1">
+      <c r="A10" s="138"/>
+    </row>
+    <row r="11" spans="1:17" ht="41.25" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="137" t="s">
         <v>198</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="85"/>
-      <c r="B13" s="131" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" ht="33" customHeight="1">
+      <c r="A12" s="76"/>
+      <c r="B12" s="121" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="132" t="s">
+      <c r="C12" s="122" t="s">
         <v>158</v>
       </c>
-      <c r="D13" s="133" t="s">
+      <c r="D12" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="E13" s="134" t="s">
+      <c r="E12" s="124" t="s">
         <v>160</v>
       </c>
-      <c r="F13" s="133" t="s">
+      <c r="F12" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="G13" s="135" t="s">
+      <c r="G12" s="125" t="s">
         <v>162</v>
       </c>
-      <c r="H13" s="135" t="s">
+      <c r="H12" s="125" t="s">
         <v>163</v>
       </c>
-      <c r="I13" s="132" t="s">
+      <c r="I12" s="122" t="s">
         <v>164</v>
       </c>
-      <c r="J13" s="133" t="s">
+      <c r="J12" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="K13" s="133" t="s">
+      <c r="K12" s="123" t="s">
         <v>166</v>
       </c>
-      <c r="L13" s="133" t="s">
+      <c r="L12" s="123" t="s">
         <v>167</v>
       </c>
-      <c r="M13" s="136" t="s">
+      <c r="M12" s="126" t="s">
         <v>168</v>
       </c>
-      <c r="N13" s="133" t="s">
+      <c r="N12" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="O13" s="133" t="s">
+      <c r="O12" s="123" t="s">
         <v>170</v>
       </c>
-      <c r="P13" s="137" t="s">
+      <c r="P12" s="127" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+    <row r="13" spans="1:17">
+      <c r="A13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="91" t="s">
+      <c r="B13" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C13" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="125" t="s">
+      <c r="D13" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="90" t="s">
+      <c r="E13" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="126" t="s">
+      <c r="F13" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="90" t="s">
+      <c r="G13" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="90" t="s">
+      <c r="H13" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="125" t="s">
+      <c r="I13" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="126" t="s">
+      <c r="J13" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="125" t="s">
+      <c r="K13" s="116" t="s">
         <v>188</v>
       </c>
-      <c r="L14" s="126" t="s">
+      <c r="L13" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="125" t="s">
+      <c r="M13" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="125" t="s">
+      <c r="N13" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="O14" s="114" t="s">
+      <c r="O13" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="P14" s="119" t="s">
+      <c r="P13" s="110" t="s">
         <v>154</v>
       </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="116"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="114"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="116"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="114"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="116"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="114"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="116"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="114"/>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="116"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="114"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="79" t="s">
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="1:17" hidden="1">
+      <c r="A14" s="107"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="1:17" hidden="1">
+      <c r="A15" s="107"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="1:17" hidden="1">
+      <c r="A16" s="107"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="1:18" hidden="1">
+      <c r="A17" s="107"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="105"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="9"/>
+    </row>
+    <row r="18" spans="1:18" hidden="1">
+      <c r="A18" s="107"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="1:18" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A19" s="13"/>
+      <c r="B19" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="140"/>
-      <c r="D20" s="140" t="s">
+      <c r="C19" s="130"/>
+      <c r="D19" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="141" t="s">
+      <c r="E19" s="131" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="140" t="s">
+      <c r="F19" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="140"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="140" t="s">
+      <c r="G19" s="130"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="140" t="s">
+      <c r="K19" s="130" t="s">
         <v>189</v>
       </c>
-      <c r="L20" s="140" t="s">
+      <c r="L19" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="M20" s="140" t="s">
+      <c r="M19" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="N20" s="140" t="s">
+      <c r="N19" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="O20" s="142" t="s">
+      <c r="O19" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="P20" s="143" t="s">
+      <c r="P19" s="133" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="20" t="s">
+    <row r="20" spans="1:18" ht="39.75" customHeight="1" thickTop="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="137" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="O21" s="24"/>
-    </row>
-    <row r="22" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="147" t="s">
-        <v>199</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="27" t="s">
+      <c r="I20" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I22" s="28" t="s">
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" spans="1:18" ht="40.5" customHeight="1">
+      <c r="A21" s="75"/>
+      <c r="B21" s="128" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="122" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="122" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" s="122" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="122" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" s="122" t="s">
+        <v>173</v>
+      </c>
+      <c r="H21" s="122" t="s">
+        <v>174</v>
+      </c>
+      <c r="I21" s="122" t="s">
+        <v>197</v>
+      </c>
+      <c r="J21" s="122" t="s">
+        <v>196</v>
+      </c>
+      <c r="K21" s="122" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" s="122" t="s">
+        <v>176</v>
+      </c>
+      <c r="M21" s="122" t="s">
+        <v>177</v>
+      </c>
+      <c r="N21" s="122" t="s">
+        <v>178</v>
+      </c>
+      <c r="O21" s="122" t="s">
+        <v>184</v>
+      </c>
+      <c r="P21" s="122" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q21" s="129" t="s">
+        <v>195</v>
+      </c>
+      <c r="R21" s="21"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="111" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="118" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="119" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="112" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="118" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="118" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="118" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="118" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="112" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="N22" s="120" t="s">
+        <v>34</v>
+      </c>
+      <c r="O22" s="120" t="s">
+        <v>35</v>
+      </c>
+      <c r="P22" s="120" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q22" s="120" t="s">
+        <v>37</v>
+      </c>
+      <c r="R22" s="21"/>
+    </row>
+    <row r="23" spans="1:18" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A23" s="10"/>
+      <c r="B23" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="130" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="130" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="130" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="130"/>
+      <c r="G23" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="130" t="s">
+        <v>94</v>
+      </c>
+      <c r="J23" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="130" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" s="130"/>
+      <c r="M23" s="130" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" s="130" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23" s="130" t="s">
+        <v>156</v>
+      </c>
+      <c r="P23" s="130" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q23" s="130" t="s">
+        <v>95</v>
+      </c>
+      <c r="R23" s="21"/>
+    </row>
+    <row r="24" spans="1:18" ht="36" customHeight="1" thickTop="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="137" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-    </row>
-    <row r="23" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
-      <c r="B23" s="138" t="s">
+      <c r="P24" s="25"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+    </row>
+    <row r="25" spans="1:18" ht="34.5" customHeight="1">
+      <c r="A25" s="75"/>
+      <c r="B25" s="121" t="s">
         <v>157</v>
       </c>
-      <c r="C23" s="132" t="s">
-        <v>171</v>
-      </c>
-      <c r="D23" s="132" t="s">
-        <v>166</v>
-      </c>
-      <c r="E23" s="132" t="s">
-        <v>185</v>
-      </c>
-      <c r="F23" s="132" t="s">
-        <v>172</v>
-      </c>
-      <c r="G23" s="132" t="s">
-        <v>173</v>
-      </c>
-      <c r="H23" s="132" t="s">
-        <v>174</v>
-      </c>
-      <c r="I23" s="132" t="s">
-        <v>197</v>
-      </c>
-      <c r="J23" s="132" t="s">
-        <v>196</v>
-      </c>
-      <c r="K23" s="132" t="s">
-        <v>175</v>
-      </c>
-      <c r="L23" s="132" t="s">
-        <v>176</v>
-      </c>
-      <c r="M23" s="132" t="s">
-        <v>177</v>
-      </c>
-      <c r="N23" s="132" t="s">
-        <v>178</v>
-      </c>
-      <c r="O23" s="132" t="s">
-        <v>184</v>
-      </c>
-      <c r="P23" s="132" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q23" s="139" t="s">
-        <v>195</v>
-      </c>
-      <c r="R23" s="29"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="120" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="127" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="128" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="128" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="121" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="127" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="127" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="127" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="127" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="127" t="s">
-        <v>31</v>
-      </c>
-      <c r="L24" s="121" t="s">
-        <v>32</v>
-      </c>
-      <c r="M24" s="129" t="s">
-        <v>33</v>
-      </c>
-      <c r="N24" s="129" t="s">
-        <v>34</v>
-      </c>
-      <c r="O24" s="129" t="s">
-        <v>35</v>
-      </c>
-      <c r="P24" s="129" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q24" s="129" t="s">
-        <v>37</v>
-      </c>
-      <c r="R24" s="29"/>
-    </row>
-    <row r="25" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="79" t="s">
+      <c r="C25" s="134" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="135" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" s="134" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="134" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="134" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="134" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="134" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" s="134" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" s="134" t="s">
+        <v>53</v>
+      </c>
+      <c r="L25" s="134" t="s">
+        <v>54</v>
+      </c>
+      <c r="M25" s="134" t="s">
+        <v>55</v>
+      </c>
+      <c r="N25" s="134" t="s">
+        <v>56</v>
+      </c>
+      <c r="O25" s="134" t="s">
+        <v>57</v>
+      </c>
+      <c r="P25" s="134" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q25" s="136" t="s">
+        <v>182</v>
+      </c>
+      <c r="R25" s="12"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="111" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="118" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="118" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="119" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="119" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="119" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="119" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="119" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" s="119" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" s="119" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="M26" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N26" s="119" t="s">
+        <v>70</v>
+      </c>
+      <c r="O26" s="119" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" s="119" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q26" s="118" t="s">
+        <v>73</v>
+      </c>
+      <c r="R26" s="12"/>
+    </row>
+    <row r="27" spans="1:18" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A27" s="13"/>
+      <c r="B27" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="140" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="140" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="140" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="140"/>
-      <c r="G25" s="140" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="140" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" s="140" t="s">
-        <v>94</v>
-      </c>
-      <c r="J25" s="140" t="s">
-        <v>42</v>
-      </c>
-      <c r="K25" s="140" t="s">
-        <v>43</v>
-      </c>
-      <c r="L25" s="140"/>
-      <c r="M25" s="140" t="s">
-        <v>44</v>
-      </c>
-      <c r="N25" s="140" t="s">
-        <v>45</v>
-      </c>
-      <c r="O25" s="140" t="s">
-        <v>156</v>
-      </c>
-      <c r="P25" s="140" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q25" s="140" t="s">
-        <v>95</v>
-      </c>
-      <c r="R25" s="29"/>
-    </row>
-    <row r="26" spans="1:18" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="82"/>
-      <c r="Q26" s="82"/>
-      <c r="R26" s="29"/>
-    </row>
-    <row r="27" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="147" t="s">
-        <v>200</v>
-      </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="35" t="s">
+      <c r="C27" s="130" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="130" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="130" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="130" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="130" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" s="130" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="130" t="s">
+        <v>80</v>
+      </c>
+      <c r="J27" s="130" t="s">
+        <v>81</v>
+      </c>
+      <c r="K27" s="130" t="s">
+        <v>82</v>
+      </c>
+      <c r="L27" s="130" t="s">
+        <v>83</v>
+      </c>
+      <c r="M27" s="130" t="s">
+        <v>84</v>
+      </c>
+      <c r="N27" s="130" t="s">
+        <v>85</v>
+      </c>
+      <c r="O27" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="P27" s="130" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q27" s="130" t="s">
+        <v>88</v>
+      </c>
+      <c r="R27" s="12"/>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" thickTop="1">
+      <c r="A28" s="1"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-    </row>
-    <row r="28" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
-      <c r="B28" s="131" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" s="144" t="s">
-        <v>180</v>
-      </c>
-      <c r="D28" s="145" t="s">
-        <v>181</v>
-      </c>
-      <c r="E28" s="144" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="144" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" s="144" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="144" t="s">
-        <v>50</v>
-      </c>
-      <c r="I28" s="144" t="s">
-        <v>51</v>
-      </c>
-      <c r="J28" s="144" t="s">
-        <v>52</v>
-      </c>
-      <c r="K28" s="144" t="s">
-        <v>53</v>
-      </c>
-      <c r="L28" s="144" t="s">
-        <v>54</v>
-      </c>
-      <c r="M28" s="144" t="s">
-        <v>55</v>
-      </c>
-      <c r="N28" s="144" t="s">
-        <v>56</v>
-      </c>
-      <c r="O28" s="144" t="s">
-        <v>57</v>
-      </c>
-      <c r="P28" s="144" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q28" s="146" t="s">
-        <v>182</v>
-      </c>
-      <c r="R28" s="16"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="120" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="127" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="127" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="128" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="128" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="128" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" s="128" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29" s="128" t="s">
-        <v>65</v>
-      </c>
-      <c r="J29" s="128" t="s">
-        <v>66</v>
-      </c>
-      <c r="K29" s="128" t="s">
-        <v>67</v>
-      </c>
-      <c r="L29" s="128" t="s">
-        <v>68</v>
-      </c>
-      <c r="M29" s="128" t="s">
-        <v>69</v>
-      </c>
-      <c r="N29" s="128" t="s">
-        <v>70</v>
-      </c>
-      <c r="O29" s="128" t="s">
-        <v>71</v>
-      </c>
-      <c r="P29" s="128" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q29" s="127" t="s">
-        <v>73</v>
-      </c>
-      <c r="R29" s="16"/>
-    </row>
-    <row r="30" spans="1:18" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="79" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="140" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="140" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="140" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="140" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" s="140" t="s">
-        <v>78</v>
-      </c>
-      <c r="H30" s="140" t="s">
-        <v>79</v>
-      </c>
-      <c r="I30" s="140" t="s">
-        <v>80</v>
-      </c>
-      <c r="J30" s="140" t="s">
-        <v>81</v>
-      </c>
-      <c r="K30" s="140" t="s">
-        <v>82</v>
-      </c>
-      <c r="L30" s="140" t="s">
-        <v>83</v>
-      </c>
-      <c r="M30" s="140" t="s">
-        <v>84</v>
-      </c>
-      <c r="N30" s="140" t="s">
-        <v>85</v>
-      </c>
-      <c r="O30" s="140" t="s">
-        <v>86</v>
-      </c>
-      <c r="P30" s="140" t="s">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+    </row>
+    <row r="30" spans="1:18" ht="33" customHeight="1">
+      <c r="A30" s="6"/>
+      <c r="B30" s="140" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" s="141"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="6"/>
+      <c r="B31" s="142" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="143" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="78"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="7"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="Q31" s="33"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="6"/>
+      <c r="B32" s="142"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="7"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="Q32" s="33"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="6"/>
+      <c r="B33" s="144" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" s="145"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="7"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="Q33" s="33"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="6"/>
+      <c r="B34" s="146" t="s">
+        <v>191</v>
+      </c>
+      <c r="C34" s="143" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" s="78"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="7"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="Q34" s="33"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="6"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="145"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="37"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+    </row>
+    <row r="36" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A36" s="6"/>
+      <c r="B36" s="144" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="145"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="37"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+    </row>
+    <row r="37" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A37" s="6"/>
+      <c r="B37" s="146" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="143" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" s="78"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="37"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="6"/>
+      <c r="B38" s="147"/>
+      <c r="C38" s="148"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="37"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+    </row>
+    <row r="39" spans="1:17" ht="2.25" customHeight="1">
+      <c r="A39" s="6"/>
+      <c r="B39" s="147"/>
+      <c r="C39" s="149"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="37"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="6"/>
+      <c r="B40" s="146" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="150" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="37"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="6"/>
+      <c r="B41" s="146" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="151" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="37"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="6"/>
+      <c r="B42" s="147"/>
+      <c r="C42" s="151"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="37"/>
+    </row>
+    <row r="43" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A43" s="6"/>
+      <c r="B43" s="146" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="152" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="77"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="37"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="6"/>
+      <c r="B44" s="146" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="153" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="77"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="37"/>
+    </row>
+    <row r="45" spans="1:17" ht="30">
+      <c r="A45" s="6"/>
+      <c r="B45" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" s="155" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45" s="77"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="37"/>
+    </row>
+    <row r="46" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A46" s="6"/>
+      <c r="B46" s="154" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" s="156" t="s">
         <v>87</v>
       </c>
-      <c r="Q30" s="140" t="s">
-        <v>88</v>
-      </c>
-      <c r="R30" s="16"/>
-    </row>
-    <row r="31" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-    </row>
-    <row r="32" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-    </row>
-    <row r="33" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="150" t="s">
-        <v>201</v>
-      </c>
-      <c r="C33" s="151"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="38"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="152" t="s">
-        <v>144</v>
-      </c>
-      <c r="C34" s="153" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" s="87"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="11"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="Q34" s="41"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="152"/>
-      <c r="C35" s="153"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="11"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="Q35" s="41"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="154" t="s">
-        <v>190</v>
-      </c>
-      <c r="C36" s="155"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="11"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="Q36" s="41"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="156" t="s">
-        <v>191</v>
-      </c>
-      <c r="C37" s="153" t="s">
-        <v>192</v>
-      </c>
-      <c r="D37" s="87"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="11"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="Q37" s="41"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="154"/>
-      <c r="C38" s="155"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="45"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-    </row>
-    <row r="39" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="154" t="s">
-        <v>153</v>
-      </c>
-      <c r="C39" s="155"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="45"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-    </row>
-    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="156" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="153" t="s">
-        <v>122</v>
-      </c>
-      <c r="D40" s="87"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="45"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="157"/>
-      <c r="C41" s="158"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="45"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-    </row>
-    <row r="42" spans="1:17" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="157"/>
-      <c r="C42" s="159"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="45"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="156" t="s">
-        <v>139</v>
-      </c>
-      <c r="C43" s="160" t="s">
-        <v>123</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="45"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="156" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" s="161" t="s">
-        <v>186</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="45"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="157"/>
-      <c r="C45" s="161"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="45"/>
-    </row>
-    <row r="46" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
-      <c r="B46" s="156" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" s="162" t="s">
-        <v>150</v>
-      </c>
-      <c r="D46" s="86"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="45"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D46" s="77"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="37"/>
+    </row>
+    <row r="47" spans="1:17" ht="15.75" thickBot="1">
       <c r="A47" s="6"/>
-      <c r="B47" s="156" t="s">
-        <v>146</v>
-      </c>
-      <c r="C47" s="163" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" s="86"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="45"/>
-    </row>
-    <row r="48" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="157" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="158" t="s">
+        <v>187</v>
+      </c>
+      <c r="D47" s="77"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="37"/>
+    </row>
+    <row r="48" spans="1:17" ht="33" customHeight="1" thickBot="1">
       <c r="A48" s="6"/>
-      <c r="B48" s="164" t="s">
-        <v>147</v>
-      </c>
-      <c r="C48" s="165" t="s">
-        <v>151</v>
-      </c>
-      <c r="D48" s="86"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="45"/>
-    </row>
-    <row r="49" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="164" t="s">
-        <v>193</v>
-      </c>
-      <c r="C49" s="166" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" s="86"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="45"/>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6"/>
-      <c r="B50" s="167" t="s">
-        <v>149</v>
-      </c>
-      <c r="C50" s="168" t="s">
-        <v>187</v>
-      </c>
-      <c r="D50" s="86"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="45"/>
-    </row>
-    <row r="51" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6"/>
-      <c r="B51" s="169" t="s">
+      <c r="B48" s="159" t="s">
         <v>148</v>
       </c>
-      <c r="C51" s="170" t="s">
+      <c r="C48" s="160" t="s">
         <v>152</v>
       </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="37"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="161"/>
+      <c r="C49" s="162"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="37"/>
+    </row>
+    <row r="50" spans="1:7" ht="18" customHeight="1">
+      <c r="A50" s="1"/>
+      <c r="B50" s="80"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="37"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="45"/>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E51" s="40"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="37"/>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1"/>
-      <c r="B52" s="171"/>
-      <c r="C52" s="172"/>
-      <c r="D52" s="86"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="45"/>
-    </row>
-    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="2"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="37"/>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1"/>
-      <c r="B53" s="89"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="45"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="45"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="45"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="45"/>
-    </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E65" s="115"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="37"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="E62" s="106"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A1:B3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -3162,282 +3087,282 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="38.85546875" customWidth="1"/>
     <col min="3" max="3" width="24.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="50" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="12"/>
+      <c r="B2" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="52" t="s">
+      <c r="C2" s="91"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="12"/>
+      <c r="B3" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="52" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="12"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="12"/>
+      <c r="B5" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="55" t="s">
+      <c r="D5" s="46"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="12"/>
+      <c r="B6" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="42" t="s">
+      <c r="D6" s="45"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="12"/>
+      <c r="B7" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="56" t="s">
+      <c r="D7" s="45"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="12"/>
+      <c r="B8" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="42" t="s">
+      <c r="D8" s="45"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="12"/>
+      <c r="B9" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="52" t="s">
+      <c r="C9" s="95"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="12"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="12"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="12"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="12"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="12"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="12"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="12"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="12"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A18" s="12"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="12"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="12"/>
+      <c r="B20" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="104" t="s">
+      <c r="C20" s="95" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="113" t="s">
+      <c r="D20" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="16"/>
-      <c r="B21" s="52" t="s">
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5">
+      <c r="A21" s="12"/>
+      <c r="B21" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="16"/>
-      <c r="B22" s="59" t="s">
+      <c r="C21" s="96"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A22" s="12"/>
+      <c r="B22" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="112" t="s">
+      <c r="D22" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="111" t="s">
+      <c r="E22" s="12"/>
+      <c r="F22" s="102" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="16"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="16"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="64" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="12"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="12"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="12"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A26" s="12"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="12"/>
+      <c r="B29" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="C29" s="95">
+      <c r="C29" s="86">
         <f>SUM(C30:C38)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="65"/>
-      <c r="E29" s="16"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="96"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="99"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D31" s="47"/>
-      <c r="E31" s="65"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D32" s="64"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="12"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="90"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="D31" s="39"/>
+      <c r="E31" s="57"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="D32" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3446,33 +3371,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="3" max="3" width="27.140625" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" s="109" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="110" t="s">
+    <row r="2" spans="2:3" s="100" customFormat="1" ht="31.5" customHeight="1">
+      <c r="B2" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="84" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="123" t="s">
+    <row r="3" spans="2:3" ht="26.25" customHeight="1">
+      <c r="B3" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="115" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3483,7 +3408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3491,222 +3416,222 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="16" width="14.5703125" customWidth="1"/>
     <col min="18" max="18" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="72"/>
-    </row>
-    <row r="4" spans="1:19" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19">
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="64"/>
+    </row>
+    <row r="4" spans="1:19" ht="32.25" thickBot="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-    </row>
-    <row r="5" spans="1:19" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="84" t="s">
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:19" ht="33.75">
+      <c r="A5" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="H5" s="83" t="s">
+      <c r="H5" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="I5" s="83" t="s">
+      <c r="I5" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="J5" s="83" t="s">
+      <c r="J5" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="K5" s="83" t="s">
+      <c r="K5" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="L5" s="83" t="s">
+      <c r="L5" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="M5" s="83" t="s">
+      <c r="M5" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="N5" s="83" t="s">
+      <c r="N5" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="O5" s="83" t="s">
+      <c r="O5" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="P5" s="83" t="s">
+      <c r="P5" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="R5" s="66" t="s">
+      <c r="R5" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="S5" s="67" t="s">
+      <c r="S5" s="59" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
+    <row r="6" spans="1:19" ht="34.5">
+      <c r="A6" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="92" t="s">
+      <c r="E6" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="92" t="s">
+      <c r="F6" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="92" t="s">
+      <c r="G6" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="92" t="s">
+      <c r="H6" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="92" t="s">
+      <c r="I6" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="92" t="s">
+      <c r="J6" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="92" t="s">
+      <c r="K6" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="93" t="s">
+      <c r="L6" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="93" t="s">
+      <c r="M6" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="93" t="s">
+      <c r="N6" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="93" t="s">
+      <c r="O6" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="93" t="s">
+      <c r="P6" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="R6" s="94" t="s">
+      <c r="R6" s="85" t="s">
         <v>140</v>
       </c>
-      <c r="S6" s="94" t="s">
+      <c r="S6" s="85" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="79" t="s">
+    <row r="7" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81" t="s">
+      <c r="E7" s="73"/>
+      <c r="F7" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="81" t="s">
+      <c r="G7" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="81" t="s">
+      <c r="H7" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="I7" s="81" t="s">
+      <c r="I7" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="81" t="s">
+      <c r="J7" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81" t="s">
+      <c r="K7" s="73"/>
+      <c r="L7" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="81" t="s">
+      <c r="M7" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81" t="s">
+      <c r="N7" s="73"/>
+      <c r="O7" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="81" t="s">
+      <c r="P7" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="R7" s="68"/>
-      <c r="S7" s="69"/>
-    </row>
-    <row r="8" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R8" s="70" t="s">
+      <c r="R7" s="60"/>
+      <c r="S7" s="61"/>
+    </row>
+    <row r="8" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="R8" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="S8" s="71" t="s">
+      <c r="S8" s="63" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R9" s="74"/>
-      <c r="S9" s="72"/>
+    <row r="9" spans="1:19">
+      <c r="R9" s="66"/>
+      <c r="S9" s="64"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K6">
     <cfRule type="dataBar" priority="1">
       <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63C384"/>
       </dataBar>
       <extLst>
